--- a/dataFiles/forgotPassword/ForgotPassword-Positive.xlsx
+++ b/dataFiles/forgotPassword/ForgotPassword-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Prabha@123</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>This case is to verify the mismatched password in the Repeat password field and verify the error message.</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -540,7 +537,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +640,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -681,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
@@ -719,7 +716,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -757,7 +754,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
